--- a/src/plantillas/ola.xlsx
+++ b/src/plantillas/ola.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pruebas con js\src\plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484AD9E7-B1E4-4F1C-ACD0-22CC5B7C50BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B05B51B-526A-45DC-BA31-550C75CCFA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3915" yWindow="2325" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>1.1</t>
   </si>
@@ -33,17 +33,116 @@
     <t>1.1.1</t>
   </si>
   <si>
-    <t>1.1.1.1.1</t>
+    <t>ACTIVO CIRCULANTE</t>
+  </si>
+  <si>
+    <t>DISPONIBLE</t>
+  </si>
+  <si>
+    <t>1.1.1.01</t>
+  </si>
+  <si>
+    <t>1.1.1.01.01</t>
+  </si>
+  <si>
+    <t>1.1.1.01.02</t>
+  </si>
+  <si>
+    <t>1.1.1.01.03.001</t>
+  </si>
+  <si>
+    <t>1.1.1.01.03.002</t>
+  </si>
+  <si>
+    <t>1.1.1.01.03.005</t>
+  </si>
+  <si>
+    <t>1.1.1.01.03</t>
+  </si>
+  <si>
+    <t>1.1.1.01.04</t>
+  </si>
+  <si>
+    <t>1.1.1.01.04.001</t>
+  </si>
+  <si>
+    <t>1.1.1.01.04.002</t>
+  </si>
+  <si>
+    <t>1.1.1.01.04.003</t>
+  </si>
+  <si>
+    <t>1.1.1.01.04.005</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>CAJA</t>
+  </si>
+  <si>
+    <t>Caja chica en moneda nacional</t>
+  </si>
+  <si>
+    <t>Caja chica en moneda extranjera</t>
+  </si>
+  <si>
+    <t>Caja chica en dólares</t>
+  </si>
+  <si>
+    <t>Caja chica en Euros</t>
+  </si>
+  <si>
+    <t>Caja chica en otras monedas</t>
+  </si>
+  <si>
+    <t>Caja en moneda nacional</t>
+  </si>
+  <si>
+    <t>Caja en moneda extranjera</t>
+  </si>
+  <si>
+    <t>Caja en dólares</t>
+  </si>
+  <si>
+    <t>Caja en Pesos</t>
+  </si>
+  <si>
+    <t>Caja en Euros</t>
+  </si>
+  <si>
+    <t>Caja en otras monedas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,11 +168,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,32 +457,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
